--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>que la vaca es mogui frontalment</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t xml:space="preserve">destruir </t>
+  </si>
+  <si>
+    <t>carreteres</t>
+  </si>
+  <si>
+    <t>spawn cotxes</t>
+  </si>
+  <si>
+    <t>destruir cotxes</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>arbres</t>
   </si>
 </sst>
 </file>
@@ -391,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +436,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -456,6 +474,37 @@
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
